--- a/data/trans_dic/P04D$aparatos-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P04D$aparatos-Estudios-trans_dic.xlsx
@@ -646,7 +646,7 @@
         <v>0.6096485191075219</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.7037318830796169</v>
+        <v>0.7037318830796172</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>0.7249708117837192</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.7055776733096566</v>
+        <v>0.7050585846877392</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.5755199196670003</v>
+        <v>0.5744939909959627</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.6640999934147507</v>
+        <v>0.664803898842687</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.6989746300854259</v>
+        <v>0.7007742078218728</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.5364271817899079</v>
+        <v>0.5389592428898557</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.7252701343289193</v>
+        <v>0.7222339042721647</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.7097316042688758</v>
+        <v>0.7117050227634499</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.5620986039302283</v>
+        <v>0.562322791266217</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.707884497481021</v>
+        <v>0.7107451113259927</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.7657199347724856</v>
+        <v>0.7630572490592945</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.6466194820794915</v>
+        <v>0.6463891390677168</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.7363650798598024</v>
+        <v>0.7399921241456174</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.7499613929570553</v>
+        <v>0.7487175853398358</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.6016914603864919</v>
+        <v>0.6029233006610848</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.7716795739489114</v>
+        <v>0.7720301886186036</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.7491191945277517</v>
+        <v>0.7496194625157033</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.6100197648820526</v>
+        <v>0.6098101141382666</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.7514603592060897</v>
+        <v>0.7508135204313091</v>
       </c>
     </row>
     <row r="7">
@@ -755,7 +755,7 @@
         <v>0.5168385324005694</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.6590129202862955</v>
+        <v>0.6590129202862958</v>
       </c>
       <c r="F7" s="5" t="n">
         <v>0.6237341414761793</v>
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.5905679026307695</v>
+        <v>0.5918460266872801</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.4945863772781099</v>
+        <v>0.49264573399459</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.6347672227901535</v>
+        <v>0.6349915600207199</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.5987298062267983</v>
+        <v>0.5997098736914729</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.4996307211540387</v>
+        <v>0.4962333874065963</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.6476831548592896</v>
+        <v>0.6465697030884833</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.6018387280881328</v>
+        <v>0.6039658033987163</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.502957612575853</v>
+        <v>0.5035892132490328</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.6467708444021013</v>
+        <v>0.6469232744929881</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.637678832463799</v>
+        <v>0.6385874830912895</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.5401870332563046</v>
+        <v>0.539796225593587</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.6810012616032429</v>
+        <v>0.6811277827659735</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.6470266324716244</v>
+        <v>0.6494630103240635</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.5453842964413617</v>
+        <v>0.5445121190071051</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.6853129943555191</v>
+        <v>0.6865647983898061</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.6355708783278822</v>
+        <v>0.6352156815764857</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.5343230247106019</v>
+        <v>0.5337935218269447</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.6773566217284125</v>
+        <v>0.6765136588812412</v>
       </c>
     </row>
     <row r="10">
@@ -873,7 +873,7 @@
         <v>0.4483066048674737</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>0.4879960756256372</v>
+        <v>0.4879960756256373</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>0.5091402641626311</v>
@@ -882,7 +882,7 @@
         <v>0.4579468904006547</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>0.5080567505309862</v>
+        <v>0.5080567505309863</v>
       </c>
     </row>
     <row r="11">
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.4358880810554814</v>
+        <v>0.4370662998455789</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.4253363444629306</v>
+        <v>0.4254343329586636</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.4891335093142958</v>
+        <v>0.4902140958785053</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.482046985026251</v>
+        <v>0.4804937744061793</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.4026615557029214</v>
+        <v>0.403880758856788</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.4532343155170857</v>
+        <v>0.4570199827382398</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.4762223592148394</v>
+        <v>0.4700630022553451</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.4273120186212921</v>
+        <v>0.4287250440522102</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.4789441130431255</v>
+        <v>0.4830928668837938</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.5331168234091889</v>
+        <v>0.5397374210001422</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.5127834379898343</v>
+        <v>0.5148496976838823</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.5651950197615082</v>
+        <v>0.5706382318118847</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.5812444700825333</v>
+        <v>0.5811561398812004</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.4915000644778995</v>
+        <v>0.4886749438285032</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.5209433187566079</v>
+        <v>0.5216769808686782</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.5451803406761793</v>
+        <v>0.5398770155226125</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.4909681572291984</v>
+        <v>0.4896362997155127</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.5306717718429763</v>
+        <v>0.5343001252011641</v>
       </c>
     </row>
     <row r="13">
@@ -991,7 +991,7 @@
         <v>0.5263109625946488</v>
       </c>
       <c r="K13" s="5" t="n">
-        <v>0.6451370166729635</v>
+        <v>0.6451370166729637</v>
       </c>
     </row>
     <row r="14">
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.6146811652850803</v>
+        <v>0.6156219001633988</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.5107281081212427</v>
+        <v>0.5109688173282515</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.6203779819374408</v>
+        <v>0.6227837363390948</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.6332707268420699</v>
+        <v>0.6340818869391764</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.5075946507942222</v>
+        <v>0.5068621425833983</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.6354222119549152</v>
+        <v>0.634295027892122</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.6290595185032259</v>
+        <v>0.6293077683085594</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.5141222837296076</v>
+        <v>0.5150685467422139</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.6328134010087204</v>
+        <v>0.633611790062144</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.6487222434584977</v>
+        <v>0.6494861853137187</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.5479656457001233</v>
+        <v>0.5453230505626827</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.6578618025297854</v>
+        <v>0.6596567292504346</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.6658689201885631</v>
+        <v>0.6656656333178924</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.5399752107617748</v>
+        <v>0.5406986826866911</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.6638902426918715</v>
+        <v>0.6636123733934245</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.6537553285437847</v>
+        <v>0.6524632381788591</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.5387745338859351</v>
+        <v>0.5402886909150522</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.6569125648223841</v>
+        <v>0.6571063256647253</v>
       </c>
     </row>
     <row r="16">
@@ -1289,31 +1289,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>686313</v>
+        <v>685808</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>434142</v>
+        <v>433368</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>382854</v>
+        <v>383260</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>935086</v>
+        <v>937494</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>533563</v>
+        <v>536081</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>595699</v>
+        <v>593205</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>1639830</v>
+        <v>1644389</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>983114</v>
+        <v>983506</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>989516</v>
+        <v>993515</v>
       </c>
     </row>
     <row r="7">
@@ -1324,31 +1324,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>744813</v>
+        <v>742223</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>487775</v>
+        <v>487602</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>424515</v>
+        <v>426606</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>1003296</v>
+        <v>1001632</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>598478</v>
+        <v>599704</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>633817</v>
+        <v>634105</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>1730835</v>
+        <v>1731991</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>1066929</v>
+        <v>1066562</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>1050429</v>
+        <v>1049525</v>
       </c>
     </row>
     <row r="8">
@@ -1433,31 +1433,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>1156810</v>
+        <v>1159313</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>1026952</v>
+        <v>1022922</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>1411082</v>
+        <v>1411581</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>1049930</v>
+        <v>1051648</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>993416</v>
+        <v>986661</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>1402802</v>
+        <v>1400390</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>2234269</v>
+        <v>2242166</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>2044364</v>
+        <v>2046932</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>2838593</v>
+        <v>2839262</v>
       </c>
     </row>
     <row r="11">
@@ -1468,31 +1468,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>1249091</v>
+        <v>1250871</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>1121636</v>
+        <v>1120825</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>1513860</v>
+        <v>1514142</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>1134623</v>
+        <v>1138895</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>1084388</v>
+        <v>1082653</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>1484304</v>
+        <v>1487015</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>2359497</v>
+        <v>2358178</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>2171855</v>
+        <v>2169703</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>2972829</v>
+        <v>2969130</v>
       </c>
     </row>
     <row r="12">
@@ -1577,31 +1577,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>209741</v>
+        <v>210308</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>232610</v>
+        <v>232664</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>348061</v>
+        <v>348830</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>221082</v>
+        <v>220369</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>221118</v>
+        <v>221787</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>331663</v>
+        <v>334434</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>447560</v>
+        <v>441771</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>468346</v>
+        <v>469894</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>691287</v>
+        <v>697275</v>
       </c>
     </row>
     <row r="15">
@@ -1612,31 +1612,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>256526</v>
+        <v>259711</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>280434</v>
+        <v>281564</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>402185</v>
+        <v>406059</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>266577</v>
+        <v>266536</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>269902</v>
+        <v>268351</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>381211</v>
+        <v>381748</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>512368</v>
+        <v>507383</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>538114</v>
+        <v>536655</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>765949</v>
+        <v>771186</v>
       </c>
     </row>
     <row r="16">
@@ -1721,31 +1721,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>2097714</v>
+        <v>2100925</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>1725044</v>
+        <v>1725857</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>2178197</v>
+        <v>2186644</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>2248126</v>
+        <v>2251005</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1792875</v>
+        <v>1790288</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>2363133</v>
+        <v>2358941</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>4379959</v>
+        <v>4381687</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>3552440</v>
+        <v>3558978</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>4575289</v>
+        <v>4581061</v>
       </c>
     </row>
     <row r="19">
@@ -1756,31 +1756,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>2213886</v>
+        <v>2216493</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>1850819</v>
+        <v>1841893</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>2309805</v>
+        <v>2316108</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>2363850</v>
+        <v>2363128</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>1907246</v>
+        <v>1909802</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>2469005</v>
+        <v>2467972</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>4551909</v>
+        <v>4542912</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>3722780</v>
+        <v>3733242</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>4749528</v>
+        <v>4750929</v>
       </c>
     </row>
     <row r="20">
